--- a/Pruebas Progra 1.xlsx
+++ b/Pruebas Progra 1.xlsx
@@ -9,10 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8532"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8532" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Param" sheetId="2" r:id="rId1"/>
+    <sheet name="Euclidean" sheetId="1" r:id="rId2"/>
+    <sheet name="Manhattan" sheetId="3" r:id="rId3"/>
+    <sheet name="Custom" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -21,6 +24,254 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="81">
+  <si>
+    <t>Poblacion</t>
+  </si>
+  <si>
+    <t>Cruce</t>
+  </si>
+  <si>
+    <t>Parada</t>
+  </si>
+  <si>
+    <t>Poblaciones posibles</t>
+  </si>
+  <si>
+    <t>1000 gen</t>
+  </si>
+  <si>
+    <t>3000 gen</t>
+  </si>
+  <si>
+    <t>5000 gen</t>
+  </si>
+  <si>
+    <t>1000 generaciones</t>
+  </si>
+  <si>
+    <t>3000 generaciones</t>
+  </si>
+  <si>
+    <t>5000 generaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 min a 100 de aptitud </t>
+  </si>
+  <si>
+    <t>% mutacion p/ individuo</t>
+  </si>
+  <si>
+    <t>Cuartos</t>
+  </si>
+  <si>
+    <t>Genes a mutar</t>
+  </si>
+  <si>
+    <t>5% - 25%</t>
+  </si>
+  <si>
+    <t>Imagen</t>
+  </si>
+  <si>
+    <t>Imagen Completa de output</t>
+  </si>
+  <si>
+    <t>PARAMETROS PARA PRUEBAS</t>
+  </si>
+  <si>
+    <t>8x8</t>
+  </si>
+  <si>
+    <t>16x16</t>
+  </si>
+  <si>
+    <t>32x32</t>
+  </si>
+  <si>
+    <t>Tiempo</t>
+  </si>
+  <si>
+    <t>100 apt</t>
+  </si>
+  <si>
+    <t>10 min</t>
+  </si>
+  <si>
+    <t>00:00:04.635</t>
+  </si>
+  <si>
+    <t>00:00:12.509</t>
+  </si>
+  <si>
+    <t>00:00:20.338</t>
+  </si>
+  <si>
+    <t>00:00:04.421</t>
+  </si>
+  <si>
+    <t>00:00:12.910</t>
+  </si>
+  <si>
+    <t>00:00:21.128</t>
+  </si>
+  <si>
+    <t>00:00:04.593</t>
+  </si>
+  <si>
+    <t>00:00:13.434</t>
+  </si>
+  <si>
+    <t>00:00:22.190</t>
+  </si>
+  <si>
+    <t>00:00:08.295</t>
+  </si>
+  <si>
+    <t>00:00:23.776</t>
+  </si>
+  <si>
+    <t>Max Fitness</t>
+  </si>
+  <si>
+    <t>00:00:39.764</t>
+  </si>
+  <si>
+    <t>00:00:09.255</t>
+  </si>
+  <si>
+    <t>00:00:27.221</t>
+  </si>
+  <si>
+    <t>00:00:43.747</t>
+  </si>
+  <si>
+    <t>00:00:09.818</t>
+  </si>
+  <si>
+    <t>00:00:29.376</t>
+  </si>
+  <si>
+    <t>00:00:49.350</t>
+  </si>
+  <si>
+    <t>00:00:20.92</t>
+  </si>
+  <si>
+    <t>00:00:53.440</t>
+  </si>
+  <si>
+    <t>00:01:58.437</t>
+  </si>
+  <si>
+    <t>00:00:21.720</t>
+  </si>
+  <si>
+    <t>00:01:25.937</t>
+  </si>
+  <si>
+    <t>00:02:05.900</t>
+  </si>
+  <si>
+    <t>00:00:30.466</t>
+  </si>
+  <si>
+    <t>00:01:38.137</t>
+  </si>
+  <si>
+    <t>00:02:51.182</t>
+  </si>
+  <si>
+    <t>00:10:00.285</t>
+  </si>
+  <si>
+    <t>55676 gen</t>
+  </si>
+  <si>
+    <t>00:00:04.883</t>
+  </si>
+  <si>
+    <t>00:00:13.622</t>
+  </si>
+  <si>
+    <t>00:00:29.264</t>
+  </si>
+  <si>
+    <t>00:00:04.827</t>
+  </si>
+  <si>
+    <t>00:00:16.670</t>
+  </si>
+  <si>
+    <t>00:00:32.119</t>
+  </si>
+  <si>
+    <t>00:00:05.342</t>
+  </si>
+  <si>
+    <t>00:00:14.59</t>
+  </si>
+  <si>
+    <t>00:00:30.910</t>
+  </si>
+  <si>
+    <t>00:00:12.394</t>
+  </si>
+  <si>
+    <t>00:00:36.63</t>
+  </si>
+  <si>
+    <t>00:00:59.50</t>
+  </si>
+  <si>
+    <t>00:00:10.362</t>
+  </si>
+  <si>
+    <t>00:00:34.260</t>
+  </si>
+  <si>
+    <t>00:01:09.965</t>
+  </si>
+  <si>
+    <t>00:00:12.578</t>
+  </si>
+  <si>
+    <t>00:00:41.526</t>
+  </si>
+  <si>
+    <t>00:01:08.438</t>
+  </si>
+  <si>
+    <t>00:00:27.269</t>
+  </si>
+  <si>
+    <t>00:01:19.278</t>
+  </si>
+  <si>
+    <t>00:02:16.396</t>
+  </si>
+  <si>
+    <t>00:00:29.19</t>
+  </si>
+  <si>
+    <t>00:01:38.733</t>
+  </si>
+  <si>
+    <t>00:02:34.672</t>
+  </si>
+  <si>
+    <t>00:00:38.362</t>
+  </si>
+  <si>
+    <t>00:01:50.623</t>
+  </si>
+  <si>
+    <t>00:02:52.482</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -54,8 +305,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -71,6 +338,978 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>765417</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>81516</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2103120"/>
+          <a:ext cx="3142857" cy="3190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>914400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4983480" y="487680"/>
+          <a:ext cx="10058400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>914400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4983480" y="1417320"/>
+          <a:ext cx="10058400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>914400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4983480" y="2377440"/>
+          <a:ext cx="10058400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>914400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4983480" y="3307080"/>
+          <a:ext cx="10058400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>914400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4983480" y="4244340"/>
+          <a:ext cx="10058400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>914400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4983480" y="5204460"/>
+          <a:ext cx="10058400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>914400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4983480" y="6164580"/>
+          <a:ext cx="10058400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>914400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagen 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4983480" y="7117080"/>
+          <a:ext cx="10058400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>914400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagen 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4983480" y="8039100"/>
+          <a:ext cx="10058400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>914400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Imagen 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4983480" y="9006840"/>
+          <a:ext cx="10058400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>914400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Imagen 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4983480" y="9959340"/>
+          <a:ext cx="10058400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>914400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Imagen 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4983480" y="10911840"/>
+          <a:ext cx="10058400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>914400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Imagen 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4983480" y="11864340"/>
+          <a:ext cx="10058400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>914400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Imagen 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4983480" y="12816840"/>
+          <a:ext cx="10058400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>914400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Imagen 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4983480" y="13784580"/>
+          <a:ext cx="10058400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>914400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Imagen 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4983480" y="14714220"/>
+          <a:ext cx="10058400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>914400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Imagen 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4983480" y="15666720"/>
+          <a:ext cx="10058400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>914400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Imagen 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4983480" y="16596360"/>
+          <a:ext cx="10058400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>914400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Imagen 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4983480" y="17548860"/>
+          <a:ext cx="10058400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>914400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Imagen 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4983480" y="18516600"/>
+          <a:ext cx="10058400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>914400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Imagen 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4983480" y="19461480"/>
+          <a:ext cx="10058400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -336,14 +1575,1795 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>512</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>1024</v>
+      </c>
+      <c r="D4">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>2048</v>
+      </c>
+      <c r="D5">
+        <v>35</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G82"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11.21875" customWidth="1"/>
+    <col min="7" max="7" width="45.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" customWidth="1"/>
+    <col min="11" max="11" width="11.5546875" customWidth="1"/>
+    <col min="13" max="13" width="20.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="4">
+        <v>512</v>
+      </c>
+      <c r="C2" s="4">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4">
+        <v>25</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4">
+        <v>35</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4">
+        <v>1024</v>
+      </c>
+      <c r="C11" s="4">
+        <v>15</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4">
+        <v>25</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4">
+        <v>35</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4">
+        <v>2048</v>
+      </c>
+      <c r="C20" s="4">
+        <v>15</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4">
+        <v>25</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4">
+        <v>35</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26" s="4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" s="4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" s="4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="4">
+        <v>1024</v>
+      </c>
+      <c r="C30" s="4">
+        <v>25</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" s="4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E31" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E56" s="3"/>
+    </row>
+    <row r="58" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E64" s="3"/>
+    </row>
+    <row r="65" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E65" s="3"/>
+    </row>
+    <row r="66" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E66" s="3"/>
+    </row>
+    <row r="67" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E67" s="3"/>
+    </row>
+    <row r="68" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E68" s="3"/>
+    </row>
+    <row r="69" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E69" s="3"/>
+    </row>
+    <row r="70" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E70" s="3"/>
+    </row>
+    <row r="71" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E71" s="3"/>
+    </row>
+    <row r="72" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E72" s="3"/>
+    </row>
+    <row r="73" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E73" s="3"/>
+    </row>
+    <row r="74" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E74" s="3"/>
+    </row>
+    <row r="75" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E75" s="3"/>
+    </row>
+    <row r="76" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E76" s="3"/>
+    </row>
+    <row r="77" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E77" s="3"/>
+    </row>
+    <row r="78" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E78" s="3"/>
+    </row>
+    <row r="79" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E79" s="3"/>
+    </row>
+    <row r="80" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E80" s="3"/>
+    </row>
+    <row r="81" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E81" s="3"/>
+    </row>
+    <row r="82" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E82" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="7" max="7" width="23.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="4">
+        <v>512</v>
+      </c>
+      <c r="C2" s="4">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4">
+        <v>25</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4">
+        <v>35</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4">
+        <v>1024</v>
+      </c>
+      <c r="C11" s="4">
+        <v>15</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4">
+        <v>25</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4">
+        <v>35</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4">
+        <v>2048</v>
+      </c>
+      <c r="C20" s="4">
+        <v>15</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4">
+        <v>25</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" s="4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" s="4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4">
+        <v>35</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" s="4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F28" s="4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="4">
+        <v>1024</v>
+      </c>
+      <c r="C30" s="4">
+        <v>25</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F84"/>
+  <sheetViews>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84:E84"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>512</v>
+      </c>
+      <c r="C2">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>1024</v>
+      </c>
+      <c r="C11">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>2048</v>
+      </c>
+      <c r="C20">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>35</v>
+      </c>
+      <c r="D26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29">
+        <v>512</v>
+      </c>
+      <c r="C29">
+        <v>15</v>
+      </c>
+      <c r="D29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>25</v>
+      </c>
+      <c r="D32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <v>35</v>
+      </c>
+      <c r="D35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>1024</v>
+      </c>
+      <c r="C38">
+        <v>15</v>
+      </c>
+      <c r="D38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C41">
+        <v>25</v>
+      </c>
+      <c r="D41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C44">
+        <v>35</v>
+      </c>
+      <c r="D44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>2048</v>
+      </c>
+      <c r="C47">
+        <v>15</v>
+      </c>
+      <c r="D47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C50">
+        <v>25</v>
+      </c>
+      <c r="D50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C53">
+        <v>35</v>
+      </c>
+      <c r="D53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56">
+        <v>512</v>
+      </c>
+      <c r="C56">
+        <v>15</v>
+      </c>
+      <c r="D56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C59">
+        <v>25</v>
+      </c>
+      <c r="D59" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C62">
+        <v>35</v>
+      </c>
+      <c r="D62" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D64" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B65">
+        <v>1024</v>
+      </c>
+      <c r="C65">
+        <v>15</v>
+      </c>
+      <c r="D65" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D67" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C68">
+        <v>25</v>
+      </c>
+      <c r="D68" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D70" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C71">
+        <v>35</v>
+      </c>
+      <c r="D71" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B74">
+        <v>2048</v>
+      </c>
+      <c r="C74">
+        <v>15</v>
+      </c>
+      <c r="D74" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D76" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C77">
+        <v>25</v>
+      </c>
+      <c r="D77" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D79" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C80">
+        <v>35</v>
+      </c>
+      <c r="D80" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D82" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>18</v>
+      </c>
+      <c r="B84">
+        <v>1024</v>
+      </c>
+      <c r="C84">
+        <v>25</v>
+      </c>
+      <c r="D84" t="s">
+        <v>22</v>
+      </c>
+      <c r="E84" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>